--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195187.1123300398</v>
+        <v>208913.4704674583</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11363662.0516545</v>
+        <v>11360400.36561903</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19494722.13550239</v>
+        <v>19491460.44946692</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4837701.196352893</v>
+        <v>4850747.09422435</v>
       </c>
     </row>
     <row r="11">
@@ -8693,10 +8695,10 @@
         <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
         <v>110.5750244233121</v>
@@ -8772,16 +8774,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
         <v>65.92768427608706</v>
@@ -9489,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>57.81213424001893</v>
@@ -9799,7 +9801,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
@@ -9808,10 +9810,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9881,16 +9883,16 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
         <v>150.3839754851235</v>
@@ -9960,19 +9962,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
         <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10185,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10367,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10510,7 +10512,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>92.09541281912071</v>
@@ -10592,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
         <v>150.3839754851235</v>
@@ -10671,7 +10673,7 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
         <v>94.49434172313325</v>
@@ -10905,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
         <v>65.92768427608706</v>
@@ -10993,7 +10995,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>101.5955875616828</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -11470,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23285,10 +23287,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23364,16 +23366,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -24081,7 +24083,7 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24391,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24400,10 +24402,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>61.14583096471014</v>
@@ -24473,16 +24475,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24552,19 +24554,19 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24777,7 +24779,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>93.17061249236157</v>
@@ -24959,10 +24961,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>173.7492132756177</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25020,22 +25022,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
@@ -25102,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -25184,7 +25186,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>110.5750244233121</v>
@@ -25193,7 +25195,7 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -25263,7 +25265,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
         <v>38.66169381481656</v>
@@ -25272,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -25497,7 +25499,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
         <v>51.84373129681028</v>
@@ -25506,7 +25508,7 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -25585,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25886,7 +25888,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
         <v>135.370731907559</v>
@@ -25907,7 +25909,7 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25965,7 +25967,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26062,7 +26064,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>61.14583096471014</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>265177.2073795685</v>
+        <v>311851.6564298038</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>319745.0944724796</v>
+        <v>316876.3967914204</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>135633.8219859044</v>
+        <v>140142.7937323675</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>295939.5852389989</v>
+        <v>287228.0415538109</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>116405.5487364068</v>
+        <v>117156.8791748318</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>231202.7413684002</v>
+        <v>188825.5286523438</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>246936.0311185856</v>
+        <v>282647.2938718993</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>237733.2031874651</v>
+        <v>233441.5392258769</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>200180.8244943084</v>
+        <v>173067.1087745897</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.803230223</v>
+        <v>491565.8032302231</v>
       </c>
       <c r="C2" t="n">
         <v>491565.8032302231</v>
       </c>
       <c r="D2" t="n">
-        <v>491565.8032302228</v>
+        <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
-        <v>111740.7555960292</v>
+        <v>127743.4238418242</v>
       </c>
       <c r="F2" t="n">
         <v>137184.6577798363</v>
@@ -26329,31 +26331,31 @@
         <v>121945.1200095336</v>
       </c>
       <c r="H2" t="n">
-        <v>130449.7454564559</v>
+        <v>129466.191965807</v>
       </c>
       <c r="I2" t="n">
-        <v>67325.88060391579</v>
+        <v>68871.8137741317</v>
       </c>
       <c r="J2" t="n">
-        <v>122287.8565764053</v>
+        <v>119301.0415986266</v>
       </c>
       <c r="K2" t="n">
-        <v>60733.3297755166</v>
+        <v>60990.9287829766</v>
       </c>
       <c r="L2" t="n">
-        <v>100092.3672493429</v>
+        <v>85563.03717526644</v>
       </c>
       <c r="M2" t="n">
-        <v>105486.6380208351</v>
+        <v>117730.4995362569</v>
       </c>
       <c r="N2" t="n">
-        <v>102331.3827301652</v>
+        <v>100859.9550861921</v>
       </c>
       <c r="O2" t="n">
         <v>86911.19130533018</v>
       </c>
       <c r="P2" t="n">
-        <v>89456.28146394005</v>
+        <v>80160.15036003644</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>51007.42582051262</v>
+        <v>67010.09406630756</v>
       </c>
       <c r="F4" t="n">
-        <v>76451.3280043197</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="G4" t="n">
-        <v>61211.79023401693</v>
+        <v>61211.79023401692</v>
       </c>
       <c r="H4" t="n">
-        <v>69716.41568093926</v>
+        <v>68732.86219029033</v>
       </c>
       <c r="I4" t="n">
-        <v>6592.5508283992</v>
+        <v>8138.483998615102</v>
       </c>
       <c r="J4" t="n">
-        <v>61554.52680088871</v>
+        <v>58567.71182311</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>257.5990074600005</v>
       </c>
       <c r="L4" t="n">
-        <v>39359.03747382633</v>
+        <v>24829.70739974983</v>
       </c>
       <c r="M4" t="n">
-        <v>44753.30824531848</v>
+        <v>56997.16976074029</v>
       </c>
       <c r="N4" t="n">
-        <v>41598.0529546486</v>
+        <v>40126.62531067553</v>
       </c>
       <c r="O4" t="n">
         <v>26177.86152981358</v>
       </c>
       <c r="P4" t="n">
-        <v>28722.95168842345</v>
+        <v>19426.82058451986</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508304</v>
+        <v>-9677.756701508151</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508188</v>
+        <v>-9677.756701508151</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.756701508479</v>
+        <v>-9677.756701508268</v>
       </c>
       <c r="E6" t="n">
-        <v>-75978.2823294917</v>
+        <v>-75978.28232949178</v>
       </c>
       <c r="F6" t="n">
-        <v>57121.71767050828</v>
+        <v>57121.71767050829</v>
       </c>
       <c r="G6" t="n">
         <v>57121.7176705083</v>
       </c>
       <c r="H6" t="n">
-        <v>57121.71767050831</v>
+        <v>57121.7176705083</v>
       </c>
       <c r="I6" t="n">
         <v>57121.71767050827</v>
       </c>
       <c r="J6" t="n">
-        <v>57121.71767050828</v>
+        <v>57121.71767050827</v>
       </c>
       <c r="K6" t="n">
         <v>57121.71767050827</v>
       </c>
       <c r="L6" t="n">
-        <v>57121.7176705083</v>
+        <v>57121.71767050829</v>
       </c>
       <c r="M6" t="n">
+        <v>57121.71767050827</v>
+      </c>
+      <c r="N6" t="n">
         <v>57121.71767050829</v>
       </c>
-      <c r="N6" t="n">
-        <v>57121.7176705083</v>
-      </c>
       <c r="O6" t="n">
-        <v>57121.71767050828</v>
+        <v>57121.71767050827</v>
       </c>
       <c r="P6" t="n">
-        <v>57121.71767050827</v>
+        <v>57121.71767050826</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_24_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208913.4704674583</v>
+        <v>125128.0687058331</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11360400.36561903</v>
+        <v>9654200.856693137</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19491460.44946692</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4850747.09422435</v>
+        <v>5664069.813850628</v>
       </c>
     </row>
     <row r="11">
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
         <v>110.5750244233121</v>
@@ -9488,10 +9488,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
         <v>57.81213424001893</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
         <v>92.09541281912071</v>
@@ -9883,13 +9883,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
@@ -9959,7 +9959,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
         <v>51.84373129681028</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
         <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,25 +10430,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
         <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,7 +10512,7 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
         <v>92.09541281912071</v>
@@ -10591,16 +10591,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
         <v>135.4597561231036</v>
@@ -10673,10 +10673,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
         <v>57.81213424001893</v>
@@ -10828,19 +10828,19 @@
         <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
         <v>150.3839754851235</v>
@@ -10904,16 +10904,16 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
         <v>57.81213424001893</v>
@@ -10995,7 +10995,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
         <v>101.5955875616828</v>
@@ -11062,22 +11062,22 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
         <v>150.3839754851235</v>
@@ -11144,16 +11144,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
         <v>65.92768427608706</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11381,19 +11381,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
         <v>94.49434172313325</v>
@@ -11469,7 +11469,7 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
         <v>101.5955875616828</v>
@@ -23439,28 +23439,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23831,34 +23831,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -24001,7 +24001,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -24080,10 +24080,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24229,31 +24229,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,34 +24305,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -24475,13 +24475,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -24551,7 +24551,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24703,31 +24703,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24782,31 +24782,31 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24861,28 +24861,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
         <v>163.8605191622716</v>
@@ -24943,28 +24943,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25022,25 +25022,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>78.03303713061706</v>
@@ -25104,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -25183,16 +25183,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -25265,10 +25265,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -25420,19 +25420,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25496,16 +25496,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -25654,22 +25654,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -25736,16 +25736,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -25809,28 +25809,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25888,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25973,19 +25973,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -26061,7 +26061,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>311851.6564298038</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>294939.9369189561</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>316876.3967914204</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>140142.7937323675</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>287228.0415538109</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>117156.8791748318</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>188825.5286523438</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>282647.2938718993</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>233441.5392258769</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>192757.6448650296</v>
+        <v>339388.588749006</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173067.1087745897</v>
+        <v>339388.588749006</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.803230223</v>
       </c>
       <c r="C2" t="n">
-        <v>491565.8032302231</v>
+        <v>491565.8032302228</v>
       </c>
       <c r="D2" t="n">
         <v>491565.803230223</v>
       </c>
       <c r="E2" t="n">
-        <v>127743.4238418242</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="F2" t="n">
         <v>137184.6577798363</v>
       </c>
       <c r="G2" t="n">
-        <v>121945.1200095336</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="H2" t="n">
-        <v>129466.191965807</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="I2" t="n">
-        <v>68871.8137741317</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="J2" t="n">
-        <v>119301.0415986266</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="K2" t="n">
-        <v>60990.9287829766</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="L2" t="n">
-        <v>85563.03717526644</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="M2" t="n">
-        <v>117730.4995362569</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="N2" t="n">
-        <v>100859.9550861921</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="O2" t="n">
-        <v>86911.19130533018</v>
+        <v>137184.6577798363</v>
       </c>
       <c r="P2" t="n">
-        <v>80160.15036003644</v>
+        <v>137184.6577798363</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>67010.09406630756</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="F4" t="n">
         <v>76451.32800431969</v>
       </c>
       <c r="G4" t="n">
-        <v>61211.79023401692</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="H4" t="n">
-        <v>68732.86219029033</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="I4" t="n">
-        <v>8138.483998615102</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="J4" t="n">
-        <v>58567.71182311</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="K4" t="n">
-        <v>257.5990074600005</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="L4" t="n">
-        <v>24829.70739974983</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="M4" t="n">
-        <v>56997.16976074029</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="N4" t="n">
-        <v>40126.62531067553</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="O4" t="n">
-        <v>26177.86152981358</v>
+        <v>76451.32800431969</v>
       </c>
       <c r="P4" t="n">
-        <v>19426.82058451986</v>
+        <v>76451.32800431969</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9677.756701508151</v>
+        <v>-9721.892480189334</v>
       </c>
       <c r="C6" t="n">
-        <v>-9677.756701508151</v>
+        <v>-9721.892480189508</v>
       </c>
       <c r="D6" t="n">
-        <v>-9677.756701508268</v>
+        <v>-9721.892480189392</v>
       </c>
       <c r="E6" t="n">
-        <v>-75978.28232949178</v>
+        <v>-90788.29916860566</v>
       </c>
       <c r="F6" t="n">
-        <v>57121.71767050829</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="G6" t="n">
-        <v>57121.7176705083</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="H6" t="n">
-        <v>57121.7176705083</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="I6" t="n">
-        <v>57121.71767050827</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="J6" t="n">
-        <v>57121.71767050827</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="K6" t="n">
-        <v>57121.71767050827</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="L6" t="n">
-        <v>57121.71767050829</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="M6" t="n">
-        <v>57121.71767050827</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="N6" t="n">
-        <v>57121.71767050829</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="O6" t="n">
-        <v>57121.71767050827</v>
+        <v>42311.70083139438</v>
       </c>
       <c r="P6" t="n">
-        <v>57121.71767050826</v>
+        <v>42311.70083139438</v>
       </c>
     </row>
   </sheetData>
